--- a/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{347CE90A-92F3-4582-96EB-3351C3C75616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1625AA9-9038-432E-A9EE-DDE1E0564C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{56A924FF-2CCF-4D05-9DE3-F0DE94898FD2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E03A9C70-586E-43F0-9BB2-832257060500}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>2,0%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,28 +104,28 @@
     <t>9,21%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>Ocasionalmente (alguna vez al mes)</t>
@@ -134,28 +134,28 @@
     <t>7,36%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>10,57%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -164,28 +164,28 @@
     <t>82,87%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>71,47%</t>
   </si>
   <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
   </si>
   <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,19 +197,19 @@
     <t>3,94%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>4,21%</t>
@@ -218,829 +218,829 @@
     <t>3,05%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>5,95%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>5,07%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>21,3%</t>
   </si>
   <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A910DC41-AB0C-4D7B-951A-61A58ED71E3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B643D21D-6149-49AF-8C51-AA42CE19ECA5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2099,7 +2099,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -2108,13 +2108,13 @@
         <v>41133</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -2123,13 +2123,13 @@
         <v>61507</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2144,13 @@
         <v>24235</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -2159,13 +2159,13 @@
         <v>40731</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -2174,13 +2174,13 @@
         <v>64966</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2195,13 @@
         <v>41325</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -2210,13 +2210,13 @@
         <v>69960</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -2225,13 +2225,13 @@
         <v>111286</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2246,13 @@
         <v>236305</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>293</v>
@@ -2261,13 +2261,13 @@
         <v>220305</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>549</v>
@@ -2276,13 +2276,13 @@
         <v>456610</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2338,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2350,13 +2350,13 @@
         <v>22849</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -2365,13 +2365,13 @@
         <v>47644</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -2380,13 +2380,13 @@
         <v>70493</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2401,13 @@
         <v>23863</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>74</v>
@@ -2416,13 +2416,13 @@
         <v>45466</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>98</v>
@@ -2431,13 +2431,13 @@
         <v>69328</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2452,13 @@
         <v>45126</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -2467,13 +2467,13 @@
         <v>88831</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>201</v>
@@ -2482,13 +2482,13 @@
         <v>133957</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2503,13 @@
         <v>230402</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>297</v>
@@ -2518,13 +2518,13 @@
         <v>246615</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>496</v>
@@ -2533,7 +2533,7 @@
         <v>477018</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>158</v>
@@ -2864,13 +2864,13 @@
         <v>9215</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -2882,10 +2882,10 @@
         <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -2894,13 +2894,13 @@
         <v>26124</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2915,13 @@
         <v>22233</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>99</v>
@@ -2930,13 +2930,13 @@
         <v>47688</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>131</v>
@@ -2945,13 +2945,13 @@
         <v>69921</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2966,13 @@
         <v>39854</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>99</v>
@@ -2981,13 +2981,13 @@
         <v>50281</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>163</v>
@@ -2996,13 +2996,13 @@
         <v>90135</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3017,13 @@
         <v>205921</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>231</v>
@@ -3032,13 +3032,13 @@
         <v>160744</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>490</v>
@@ -3047,13 +3047,13 @@
         <v>366666</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3109,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3121,13 +3121,13 @@
         <v>31926</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>104</v>
@@ -3136,13 +3136,13 @@
         <v>72065</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>136</v>
@@ -3151,13 +3151,13 @@
         <v>103991</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3172,13 @@
         <v>45796</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>114</v>
@@ -3187,13 +3187,13 @@
         <v>78694</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>159</v>
@@ -3202,13 +3202,13 @@
         <v>124490</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3223,13 @@
         <v>118297</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>208</v>
@@ -3238,13 +3238,13 @@
         <v>146276</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>323</v>
@@ -3253,13 +3253,13 @@
         <v>264574</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3274,13 @@
         <v>430657</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>534</v>
@@ -3289,13 +3289,13 @@
         <v>507168</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>940</v>
@@ -3304,13 +3304,13 @@
         <v>937825</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3366,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3378,13 +3378,13 @@
         <v>126159</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>287</v>
@@ -3393,13 +3393,13 @@
         <v>196370</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M39" s="7">
         <v>435</v>
@@ -3408,13 +3408,13 @@
         <v>322529</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3429,13 @@
         <v>35203</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H40" s="7">
         <v>94</v>
@@ -3495,13 +3495,13 @@
         <v>181048</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M41" s="7">
         <v>392</v>
@@ -3510,13 +3510,13 @@
         <v>327789</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>150</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3531,13 @@
         <v>551325</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>442</v>
@@ -3546,13 +3546,13 @@
         <v>418747</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>861</v>
@@ -3561,13 +3561,13 @@
         <v>970072</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3635,13 @@
         <v>236796</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>302</v>
+        <v>200</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>622</v>
@@ -3650,13 +3650,13 @@
         <v>412573</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>886</v>
@@ -3665,13 +3665,13 @@
         <v>649370</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>107</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3686,13 @@
         <v>206644</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>311</v>
+        <v>166</v>
       </c>
       <c r="H45" s="7">
         <v>618</v>
@@ -3701,10 +3701,10 @@
         <v>371649</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>312</v>
+        <v>91</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>313</v>

--- a/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1625AA9-9038-432E-A9EE-DDE1E0564C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43E94088-930B-478D-8D81-502493E0CF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E03A9C70-586E-43F0-9BB2-832257060500}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E267FE34-EEFA-4D53-9F26-EA2385B30ADC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B643D21D-6149-49AF-8C51-AA42CE19ECA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5248BE86-33AB-43C0-BF85-C2F052CA8DAD}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43E94088-930B-478D-8D81-502493E0CF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24B8694-3A5B-4171-AD64-7CD3310560AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E267FE34-EEFA-4D53-9F26-EA2385B30ADC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0CE1C40-E8B8-486F-AFFF-9EB148951284}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,0%</t>
+    <t>1,86%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -104,943 +104,943 @@
     <t>9,21%</t>
   </si>
   <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
     <t>11,36%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>10,68%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>21,5%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
   </si>
   <si>
     <t>56,19%</t>
   </si>
   <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
   </si>
   <si>
     <t>61,42%</t>
   </si>
   <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1455,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5248BE86-33AB-43C0-BF85-C2F052CA8DAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6F974A-C40E-44B7-9EB2-8EA1F3BE0169}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2099,7 +2099,7 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
@@ -2108,13 +2108,13 @@
         <v>41133</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -2123,13 +2123,13 @@
         <v>61507</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2144,13 @@
         <v>24235</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -2159,13 +2159,13 @@
         <v>40731</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
@@ -2174,13 +2174,13 @@
         <v>64966</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2195,13 @@
         <v>41325</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -2210,13 +2210,13 @@
         <v>69960</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>166</v>
@@ -2225,13 +2225,13 @@
         <v>111286</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2246,13 @@
         <v>236305</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>293</v>
@@ -2261,13 +2261,13 @@
         <v>220305</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>549</v>
@@ -2276,13 +2276,13 @@
         <v>456610</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2338,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2350,13 +2350,13 @@
         <v>22849</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>75</v>
@@ -2365,13 +2365,13 @@
         <v>47644</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>96</v>
@@ -2380,13 +2380,13 @@
         <v>70493</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2401,13 @@
         <v>23863</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>74</v>
@@ -2416,13 +2416,13 @@
         <v>45466</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>98</v>
@@ -2431,13 +2431,13 @@
         <v>69328</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2452,13 @@
         <v>45126</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>153</v>
@@ -2467,13 +2467,13 @@
         <v>88831</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>201</v>
@@ -2482,13 +2482,13 @@
         <v>133957</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2503,13 @@
         <v>230402</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>297</v>
@@ -2518,13 +2518,13 @@
         <v>246615</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>496</v>
@@ -2533,7 +2533,7 @@
         <v>477018</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>158</v>
@@ -2864,13 +2864,13 @@
         <v>9215</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -2882,10 +2882,10 @@
         <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -2894,13 +2894,13 @@
         <v>26124</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2915,13 @@
         <v>22233</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>99</v>
@@ -2930,13 +2930,13 @@
         <v>47688</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>131</v>
@@ -2945,13 +2945,13 @@
         <v>69921</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2966,13 @@
         <v>39854</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>99</v>
@@ -2981,13 +2981,13 @@
         <v>50281</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>163</v>
@@ -2996,13 +2996,13 @@
         <v>90135</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3017,13 @@
         <v>205921</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>231</v>
@@ -3032,13 +3032,13 @@
         <v>160744</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>490</v>
@@ -3047,13 +3047,13 @@
         <v>366666</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3109,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3121,13 +3121,13 @@
         <v>31926</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>104</v>
@@ -3136,13 +3136,13 @@
         <v>72065</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>136</v>
@@ -3151,13 +3151,13 @@
         <v>103991</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3172,13 @@
         <v>45796</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H35" s="7">
         <v>114</v>
@@ -3187,13 +3187,13 @@
         <v>78694</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M35" s="7">
         <v>159</v>
@@ -3202,13 +3202,13 @@
         <v>124490</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,13 +3223,13 @@
         <v>118297</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>208</v>
@@ -3238,13 +3238,13 @@
         <v>146276</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>323</v>
@@ -3253,13 +3253,13 @@
         <v>264574</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3274,13 @@
         <v>430657</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>534</v>
@@ -3289,13 +3289,13 @@
         <v>507168</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>940</v>
@@ -3304,13 +3304,13 @@
         <v>937825</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,7 +3366,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3378,13 +3378,13 @@
         <v>126159</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H39" s="7">
         <v>287</v>
@@ -3393,13 +3393,13 @@
         <v>196370</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M39" s="7">
         <v>435</v>
@@ -3408,13 +3408,13 @@
         <v>322529</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,13 +3429,13 @@
         <v>35203</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="H40" s="7">
         <v>94</v>
@@ -3495,13 +3495,13 @@
         <v>181048</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M41" s="7">
         <v>392</v>
@@ -3510,13 +3510,13 @@
         <v>327789</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>293</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3531,13 @@
         <v>551325</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>442</v>
@@ -3546,13 +3546,13 @@
         <v>418747</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>861</v>
@@ -3561,13 +3561,13 @@
         <v>970072</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3635,13 @@
         <v>236796</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>622</v>
@@ -3650,13 +3650,13 @@
         <v>412573</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>886</v>
@@ -3665,13 +3665,13 @@
         <v>649370</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P44" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,13 +3686,13 @@
         <v>206644</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H45" s="7">
         <v>618</v>
@@ -3701,10 +3701,10 @@
         <v>371649</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>91</v>
+        <v>312</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>313</v>

--- a/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C24B8694-3A5B-4171-AD64-7CD3310560AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D1C4E0-1434-41A2-B4F9-1A416CBCAC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0CE1C40-E8B8-486F-AFFF-9EB148951284}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{FAEE9A2D-48A6-4966-A2D7-466BF23EDBA4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -71,976 +71,961 @@
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>0,56%</t>
+    <t>0,5%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>4,86%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1455,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6F974A-C40E-44B7-9EB2-8EA1F3BE0169}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A568DA50-5A4E-4C7B-8014-4E6A31BFC3EE}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1576,7 +1561,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1457</v>
+        <v>1551</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1591,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>2034</v>
+        <v>2140</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1606,7 +1591,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>3491</v>
+        <v>3692</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1627,7 +1612,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>23973</v>
+        <v>27507</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1642,7 +1627,7 @@
         <v>85</v>
       </c>
       <c r="I5" s="7">
-        <v>38352</v>
+        <v>39510</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1657,7 +1642,7 @@
         <v>115</v>
       </c>
       <c r="N5" s="7">
-        <v>62325</v>
+        <v>67017</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1678,7 +1663,7 @@
         <v>31</v>
       </c>
       <c r="D6" s="7">
-        <v>19166</v>
+        <v>22053</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1693,7 +1678,7 @@
         <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>37056</v>
+        <v>39444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1708,7 +1693,7 @@
         <v>108</v>
       </c>
       <c r="N6" s="7">
-        <v>56222</v>
+        <v>61497</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1729,7 +1714,7 @@
         <v>268</v>
       </c>
       <c r="D7" s="7">
-        <v>215701</v>
+        <v>260333</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1744,7 +1729,7 @@
         <v>371</v>
       </c>
       <c r="I7" s="7">
-        <v>193962</v>
+        <v>208540</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1759,7 +1744,7 @@
         <v>639</v>
       </c>
       <c r="N7" s="7">
-        <v>409662</v>
+        <v>468872</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1780,7 +1765,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1795,7 +1780,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1810,7 +1795,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1833,7 +1818,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="7">
-        <v>20464</v>
+        <v>20308</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1848,7 +1833,7 @@
         <v>32</v>
       </c>
       <c r="I9" s="7">
-        <v>24758</v>
+        <v>22761</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1863,7 +1848,7 @@
         <v>46</v>
       </c>
       <c r="N9" s="7">
-        <v>45221</v>
+        <v>43069</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1884,7 +1869,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>20576</v>
+        <v>20445</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1899,7 +1884,7 @@
         <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>37672</v>
+        <v>34812</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1914,7 +1899,7 @@
         <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>58248</v>
+        <v>55258</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1935,7 +1920,7 @@
         <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>112785</v>
+        <v>110162</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1950,7 +1935,7 @@
         <v>190</v>
       </c>
       <c r="I11" s="7">
-        <v>135518</v>
+        <v>125864</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1965,7 +1950,7 @@
         <v>281</v>
       </c>
       <c r="N11" s="7">
-        <v>248303</v>
+        <v>236027</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1986,7 +1971,7 @@
         <v>261</v>
       </c>
       <c r="D12" s="7">
-        <v>365472</v>
+        <v>367474</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -2001,7 +1986,7 @@
         <v>441</v>
       </c>
       <c r="I12" s="7">
-        <v>356619</v>
+        <v>331532</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -2016,7 +2001,7 @@
         <v>702</v>
       </c>
       <c r="N12" s="7">
-        <v>722091</v>
+        <v>699006</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -2037,7 +2022,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -2052,7 +2037,7 @@
         <v>717</v>
       </c>
       <c r="I13" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -2067,7 +2052,7 @@
         <v>1099</v>
       </c>
       <c r="N13" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -2090,7 +2075,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>20374</v>
+        <v>19621</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -2099,16 +2084,16 @@
         <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>61</v>
       </c>
       <c r="I14" s="7">
-        <v>41133</v>
+        <v>38198</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>92</v>
@@ -2120,7 +2105,7 @@
         <v>85</v>
       </c>
       <c r="N14" s="7">
-        <v>61507</v>
+        <v>57820</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -2141,7 +2126,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="7">
-        <v>24235</v>
+        <v>23582</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -2156,7 +2141,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="7">
-        <v>40731</v>
+        <v>37852</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -2171,7 +2156,7 @@
         <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>64966</v>
+        <v>61434</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -2192,7 +2177,7 @@
         <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>41325</v>
+        <v>39972</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -2207,7 +2192,7 @@
         <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>69960</v>
+        <v>65292</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -2222,7 +2207,7 @@
         <v>166</v>
       </c>
       <c r="N16" s="7">
-        <v>111286</v>
+        <v>105264</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -2243,7 +2228,7 @@
         <v>256</v>
       </c>
       <c r="D17" s="7">
-        <v>236305</v>
+        <v>232875</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -2258,7 +2243,7 @@
         <v>293</v>
       </c>
       <c r="I17" s="7">
-        <v>220305</v>
+        <v>206716</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -2273,7 +2258,7 @@
         <v>549</v>
       </c>
       <c r="N17" s="7">
-        <v>456610</v>
+        <v>439591</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -2282,7 +2267,7 @@
         <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,7 +2279,7 @@
         <v>360</v>
       </c>
       <c r="D18" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2309,7 +2294,7 @@
         <v>534</v>
       </c>
       <c r="I18" s="7">
-        <v>372129</v>
+        <v>348059</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2324,7 +2309,7 @@
         <v>894</v>
       </c>
       <c r="N18" s="7">
-        <v>694369</v>
+        <v>664109</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2338,7 +2323,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2347,10 +2332,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="7">
-        <v>22849</v>
+        <v>21999</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>125</v>
@@ -2362,7 +2347,7 @@
         <v>75</v>
       </c>
       <c r="I19" s="7">
-        <v>47644</v>
+        <v>43913</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -2377,7 +2362,7 @@
         <v>96</v>
       </c>
       <c r="N19" s="7">
-        <v>70493</v>
+        <v>65913</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
@@ -2398,7 +2383,7 @@
         <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>23863</v>
+        <v>22821</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>133</v>
@@ -2413,7 +2398,7 @@
         <v>74</v>
       </c>
       <c r="I20" s="7">
-        <v>45466</v>
+        <v>41855</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>136</v>
@@ -2428,7 +2413,7 @@
         <v>98</v>
       </c>
       <c r="N20" s="7">
-        <v>69328</v>
+        <v>64676</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>139</v>
@@ -2449,7 +2434,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="7">
-        <v>45126</v>
+        <v>42801</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>142</v>
@@ -2464,7 +2449,7 @@
         <v>153</v>
       </c>
       <c r="I21" s="7">
-        <v>88831</v>
+        <v>82709</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>145</v>
@@ -2479,7 +2464,7 @@
         <v>201</v>
       </c>
       <c r="N21" s="7">
-        <v>133957</v>
+        <v>125510</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>148</v>
@@ -2500,7 +2485,7 @@
         <v>199</v>
       </c>
       <c r="D22" s="7">
-        <v>230402</v>
+        <v>224935</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>151</v>
@@ -2515,7 +2500,7 @@
         <v>297</v>
       </c>
       <c r="I22" s="7">
-        <v>246615</v>
+        <v>307241</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>154</v>
@@ -2530,7 +2515,7 @@
         <v>496</v>
       </c>
       <c r="N22" s="7">
-        <v>477018</v>
+        <v>532176</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>157</v>
@@ -2551,7 +2536,7 @@
         <v>292</v>
       </c>
       <c r="D23" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2566,7 +2551,7 @@
         <v>599</v>
       </c>
       <c r="I23" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2581,7 +2566,7 @@
         <v>891</v>
       </c>
       <c r="N23" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2604,7 +2589,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>4353</v>
+        <v>3938</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>161</v>
@@ -2613,37 +2598,37 @@
         <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="H24" s="7">
         <v>27</v>
       </c>
       <c r="I24" s="7">
-        <v>11661</v>
+        <v>10556</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M24" s="7">
         <v>34</v>
       </c>
       <c r="N24" s="7">
-        <v>16014</v>
+        <v>14494</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,46 +2640,46 @@
         <v>17</v>
       </c>
       <c r="D25" s="7">
-        <v>10764</v>
+        <v>9727</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
       </c>
       <c r="I25" s="7">
-        <v>13541</v>
+        <v>12311</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>50</v>
+      </c>
+      <c r="N25" s="7">
+        <v>22038</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="M25" s="7">
-        <v>50</v>
-      </c>
-      <c r="N25" s="7">
-        <v>24305</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,46 +2691,46 @@
         <v>204</v>
       </c>
       <c r="D26" s="7">
-        <v>139757</v>
+        <v>127481</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>379</v>
       </c>
       <c r="I26" s="7">
-        <v>173154</v>
+        <v>156735</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>583</v>
       </c>
       <c r="N26" s="7">
-        <v>312911</v>
+        <v>284216</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,46 +2742,46 @@
         <v>51</v>
       </c>
       <c r="D27" s="7">
-        <v>41874</v>
+        <v>37597</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>52</v>
       </c>
       <c r="I27" s="7">
-        <v>33141</v>
+        <v>28671</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>103</v>
       </c>
       <c r="N27" s="7">
-        <v>75015</v>
+        <v>66268</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,7 +2793,7 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2823,7 +2808,7 @@
         <v>491</v>
       </c>
       <c r="I28" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2838,7 +2823,7 @@
         <v>770</v>
       </c>
       <c r="N28" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2852,7 +2837,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2861,46 +2846,46 @@
         <v>16</v>
       </c>
       <c r="D29" s="7">
-        <v>9215</v>
+        <v>8749</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
       </c>
       <c r="I29" s="7">
-        <v>16909</v>
+        <v>15793</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
       </c>
       <c r="N29" s="7">
-        <v>26124</v>
+        <v>24542</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,46 +2897,46 @@
         <v>32</v>
       </c>
       <c r="D30" s="7">
-        <v>22233</v>
+        <v>21344</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>99</v>
       </c>
       <c r="I30" s="7">
-        <v>47688</v>
+        <v>44559</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>131</v>
       </c>
       <c r="N30" s="7">
-        <v>69921</v>
+        <v>65903</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,46 +2948,46 @@
         <v>64</v>
       </c>
       <c r="D31" s="7">
-        <v>39854</v>
+        <v>38463</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>99</v>
       </c>
       <c r="I31" s="7">
-        <v>50281</v>
+        <v>46892</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>163</v>
       </c>
       <c r="N31" s="7">
-        <v>90135</v>
+        <v>85355</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,46 +2999,46 @@
         <v>259</v>
       </c>
       <c r="D32" s="7">
-        <v>205921</v>
+        <v>201079</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>231</v>
       </c>
       <c r="I32" s="7">
-        <v>160744</v>
+        <v>149813</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>490</v>
       </c>
       <c r="N32" s="7">
-        <v>366666</v>
+        <v>350892</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,7 +3050,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -3080,7 +3065,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -3095,7 +3080,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -3109,7 +3094,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3118,46 +3103,46 @@
         <v>32</v>
       </c>
       <c r="D34" s="7">
-        <v>31926</v>
+        <v>31255</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>104</v>
       </c>
       <c r="I34" s="7">
-        <v>72065</v>
+        <v>65546</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>100</v>
       </c>
       <c r="M34" s="7">
         <v>136</v>
       </c>
       <c r="N34" s="7">
-        <v>103991</v>
+        <v>96801</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,46 +3154,46 @@
         <v>45</v>
       </c>
       <c r="D35" s="7">
-        <v>45796</v>
+        <v>45184</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>114</v>
       </c>
       <c r="I35" s="7">
-        <v>78694</v>
+        <v>73551</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>159</v>
       </c>
       <c r="N35" s="7">
-        <v>124490</v>
+        <v>118735</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,46 +3205,46 @@
         <v>115</v>
       </c>
       <c r="D36" s="7">
-        <v>118297</v>
+        <v>114798</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>208</v>
       </c>
       <c r="I36" s="7">
-        <v>146276</v>
+        <v>135751</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>323</v>
       </c>
       <c r="N36" s="7">
-        <v>264574</v>
+        <v>250549</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,46 +3256,46 @@
         <v>406</v>
       </c>
       <c r="D37" s="7">
-        <v>430657</v>
+        <v>432012</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>534</v>
       </c>
       <c r="I37" s="7">
-        <v>507168</v>
+        <v>574417</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>85</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>940</v>
       </c>
       <c r="N37" s="7">
-        <v>937825</v>
+        <v>1006428</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,7 +3307,7 @@
         <v>598</v>
       </c>
       <c r="D38" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>50</v>
@@ -3337,7 +3322,7 @@
         <v>960</v>
       </c>
       <c r="I38" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>50</v>
@@ -3352,7 +3337,7 @@
         <v>1558</v>
       </c>
       <c r="N38" s="7">
-        <v>1430880</v>
+        <v>1472514</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>50</v>
@@ -3366,7 +3351,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3375,46 +3360,46 @@
         <v>148</v>
       </c>
       <c r="D39" s="7">
-        <v>126159</v>
+        <v>107943</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>270</v>
+        <v>205</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H39" s="7">
         <v>287</v>
       </c>
       <c r="I39" s="7">
-        <v>196370</v>
+        <v>165402</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M39" s="7">
         <v>435</v>
       </c>
       <c r="N39" s="7">
-        <v>322529</v>
+        <v>273345</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,46 +3411,46 @@
         <v>41</v>
       </c>
       <c r="D40" s="7">
-        <v>35203</v>
+        <v>30269</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="H40" s="7">
         <v>94</v>
       </c>
       <c r="I40" s="7">
-        <v>69506</v>
+        <v>57299</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>135</v>
       </c>
       <c r="N40" s="7">
-        <v>104710</v>
+        <v>87567</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,46 +3462,46 @@
         <v>154</v>
       </c>
       <c r="D41" s="7">
-        <v>146741</v>
+        <v>125331</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>238</v>
       </c>
       <c r="I41" s="7">
-        <v>181048</v>
+        <v>151480</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>150</v>
+        <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M41" s="7">
         <v>392</v>
       </c>
       <c r="N41" s="7">
-        <v>327789</v>
+        <v>276812</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>150</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,46 +3513,46 @@
         <v>419</v>
       </c>
       <c r="D42" s="7">
-        <v>551325</v>
+        <v>665177</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H42" s="7">
         <v>442</v>
       </c>
       <c r="I42" s="7">
-        <v>418747</v>
+        <v>341211</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M42" s="7">
         <v>861</v>
       </c>
       <c r="N42" s="7">
-        <v>970072</v>
+        <v>1006388</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,7 +3564,7 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>50</v>
@@ -3594,7 +3579,7 @@
         <v>1061</v>
       </c>
       <c r="I43" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>50</v>
@@ -3609,7 +3594,7 @@
         <v>1823</v>
       </c>
       <c r="N43" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>50</v>
@@ -3632,46 +3617,46 @@
         <v>264</v>
       </c>
       <c r="D44" s="7">
-        <v>236796</v>
+        <v>215365</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>622</v>
       </c>
       <c r="I44" s="7">
-        <v>412573</v>
+        <v>364310</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M44" s="7">
         <v>886</v>
       </c>
       <c r="N44" s="7">
-        <v>649370</v>
+        <v>579675</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>107</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,46 +3668,46 @@
         <v>234</v>
       </c>
       <c r="D45" s="7">
-        <v>206644</v>
+        <v>200879</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H45" s="7">
         <v>618</v>
       </c>
       <c r="I45" s="7">
-        <v>371649</v>
+        <v>341750</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M45" s="7">
         <v>852</v>
       </c>
       <c r="N45" s="7">
-        <v>578293</v>
+        <v>542628</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,46 +3719,46 @@
         <v>758</v>
       </c>
       <c r="D46" s="7">
-        <v>663052</v>
+        <v>621062</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H46" s="7">
         <v>1459</v>
       </c>
       <c r="I46" s="7">
-        <v>882124</v>
+        <v>804167</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M46" s="7">
         <v>2217</v>
       </c>
       <c r="N46" s="7">
-        <v>1545176</v>
+        <v>1425229</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,46 +3770,46 @@
         <v>2119</v>
       </c>
       <c r="D47" s="7">
-        <v>2277659</v>
+        <v>2421482</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H47" s="7">
         <v>2661</v>
       </c>
       <c r="I47" s="7">
-        <v>2137300</v>
+        <v>2148139</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>4780</v>
       </c>
       <c r="N47" s="7">
-        <v>4414959</v>
+        <v>4569622</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,7 +3821,7 @@
         <v>3375</v>
       </c>
       <c r="D48" s="7">
-        <v>3384151</v>
+        <v>3458787</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>50</v>
@@ -3851,7 +3836,7 @@
         <v>5360</v>
       </c>
       <c r="I48" s="7">
-        <v>3803647</v>
+        <v>3658366</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>50</v>
@@ -3866,7 +3851,7 @@
         <v>8735</v>
       </c>
       <c r="N48" s="7">
-        <v>7187798</v>
+        <v>7117154</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>50</v>
@@ -3880,7 +3865,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33B1_2023-Provincia-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene dificultad para dormirse por la noche en 2023</t>
+          <t>Población según la frecuencia con la que tiene dificultad para dormirse por la noche en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
